--- a/Settings/StringTable.xlsx
+++ b/Settings/StringTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="21555" windowHeight="9630" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="21555" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="320">
   <si>
     <t>#define</t>
   </si>
@@ -1266,6 +1266,32 @@
   </si>
   <si>
     <t>IDC_REST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS_WWE_OWSWIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS_WWE_POOLSWIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS_POSITION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS_POSITION_2</t>
+  </si>
+  <si>
+    <t>IDS_POSITION_3</t>
+  </si>
+  <si>
+    <t>#define</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS_WWE_METER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1274,7 +1300,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="\&quot;@\&quot;"/>
+    <numFmt numFmtId="176" formatCode="\&quot;@\&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1293,12 +1319,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1315,11 +1347,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1616,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1674,25 +1712,25 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>10005</v>
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="3">
+        <v>100041</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>10006</v>
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" s="3">
+        <v>100042</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1700,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>10007</v>
+        <v>10005</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1711,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>10008</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1722,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>10009</v>
+        <v>10007</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1733,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>10010</v>
+        <v>10008</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1744,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>10011</v>
+        <v>10009</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1755,10 +1793,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>10012</v>
+        <v>10010</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1766,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>10013</v>
+        <v>10011</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1777,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>10014</v>
+        <v>10012</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1788,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>10015</v>
+        <v>10013</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1799,10 +1837,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>10016</v>
+        <v>10014</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1810,10 +1848,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>10017</v>
+        <v>10015</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1821,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>10018</v>
+        <v>10016</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1832,21 +1870,21 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>10019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <v>10020</v>
+        <v>10017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="2" customFormat="1">
+      <c r="A20" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C20" s="3">
+        <v>100171</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1854,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>10021</v>
+        <v>10018</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1865,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>10022</v>
+        <v>10019</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1876,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>10023</v>
+        <v>10020</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1887,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C24">
-        <v>10024</v>
+        <v>10021</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1898,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>10025</v>
+        <v>10022</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1909,10 +1947,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C26">
-        <v>10026</v>
+        <v>10023</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1920,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C27">
-        <v>10027</v>
+        <v>10024</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1931,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C28">
-        <v>10028</v>
+        <v>10025</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1942,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C29">
-        <v>10029</v>
+        <v>10026</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1953,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30">
-        <v>10030</v>
+        <v>10027</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1964,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>10031</v>
+        <v>10028</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1975,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>10032</v>
+        <v>10029</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1986,10 +2024,10 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>10033</v>
+        <v>10030</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1997,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34">
-        <v>10034</v>
+        <v>10031</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2008,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>10035</v>
+        <v>10032</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2019,10 +2057,10 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C36">
-        <v>10036</v>
+        <v>10033</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2030,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C37">
-        <v>10037</v>
+        <v>10034</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2041,10 +2079,10 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C38">
-        <v>10038</v>
+        <v>10035</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2052,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C39">
-        <v>10039</v>
+        <v>10036</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2063,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C40">
-        <v>10040</v>
+        <v>10037</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2074,10 +2112,10 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C41">
-        <v>10041</v>
+        <v>10038</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2085,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C42">
-        <v>10042</v>
+        <v>10039</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2096,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <v>10043</v>
+        <v>10040</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2107,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C44">
-        <v>10044</v>
+        <v>10041</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2118,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C45">
-        <v>10045</v>
+        <v>10042</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2129,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C46">
-        <v>10046</v>
+        <v>10043</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2140,43 +2178,43 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C47">
-        <v>10047</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48">
-        <v>10048</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49">
-        <v>10049</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50">
-        <v>10050</v>
+        <v>10044</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="2" customFormat="1">
+      <c r="A48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48" s="3">
+        <v>100441</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="2" customFormat="1">
+      <c r="A49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C49" s="3">
+        <v>100442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="2" customFormat="1">
+      <c r="A50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C50" s="3">
+        <v>100443</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2184,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C51">
-        <v>10051</v>
+        <v>10045</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2195,10 +2233,10 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C52">
-        <v>10052</v>
+        <v>10046</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2206,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C53">
-        <v>10053</v>
+        <v>10047</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2217,10 +2255,10 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C54">
-        <v>10054</v>
+        <v>10048</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2228,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C55">
-        <v>10055</v>
+        <v>10049</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2239,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C56">
-        <v>10056</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2250,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C57">
-        <v>10057</v>
+        <v>10051</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2261,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C58">
-        <v>10058</v>
+        <v>10052</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2272,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C59">
-        <v>10059</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2283,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C60">
-        <v>10060</v>
+        <v>10054</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2294,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C61">
-        <v>10061</v>
+        <v>10055</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2305,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C62">
-        <v>10062</v>
+        <v>10056</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2316,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C63">
-        <v>10063</v>
+        <v>10057</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2327,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C64">
-        <v>10064</v>
+        <v>10058</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2338,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C65">
-        <v>10065</v>
+        <v>10059</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2349,10 +2387,10 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C66">
-        <v>10066</v>
+        <v>10060</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2360,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C67">
-        <v>10067</v>
+        <v>10061</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2371,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C68">
-        <v>10068</v>
+        <v>10062</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2382,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C69">
-        <v>10069</v>
+        <v>10063</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2393,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C70">
-        <v>10070</v>
+        <v>10064</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2404,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C71">
-        <v>10071</v>
+        <v>10065</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2415,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C72">
-        <v>10072</v>
+        <v>10066</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2426,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C73">
-        <v>10073</v>
+        <v>10067</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2437,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C74">
-        <v>10074</v>
+        <v>10068</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2448,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C75">
-        <v>10075</v>
+        <v>10069</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2459,10 +2497,10 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C76">
-        <v>10076</v>
+        <v>10070</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2470,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C77">
-        <v>10077</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2481,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C78">
-        <v>10078</v>
+        <v>10072</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2492,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C79">
-        <v>10079</v>
+        <v>10073</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2503,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C80">
-        <v>10080</v>
+        <v>10074</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2514,10 +2552,10 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C81">
-        <v>10081</v>
+        <v>10075</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2525,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C82">
-        <v>10082</v>
+        <v>10076</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2536,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C83">
-        <v>10083</v>
+        <v>10077</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2547,10 +2585,10 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C84">
-        <v>10084</v>
+        <v>10078</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2558,10 +2596,10 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C85">
-        <v>10085</v>
+        <v>10079</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2569,10 +2607,10 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C86">
-        <v>10086</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2580,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C87">
-        <v>10087</v>
+        <v>10081</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2591,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C88">
-        <v>10088</v>
+        <v>10082</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2602,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C89">
-        <v>10089</v>
+        <v>10083</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2613,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C90">
-        <v>10090</v>
+        <v>10084</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2624,10 +2662,10 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C91">
-        <v>10091</v>
+        <v>10085</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2635,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C92">
-        <v>10092</v>
+        <v>10086</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2646,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="C93">
-        <v>10093</v>
+        <v>10087</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2657,10 +2695,10 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>211</v>
+        <v>90</v>
       </c>
       <c r="C94">
-        <v>100931</v>
+        <v>10088</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2668,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="C95">
-        <v>100932</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2679,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="C96">
-        <v>100933</v>
+        <v>10090</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2690,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="C97">
-        <v>100934</v>
+        <v>10091</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2701,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c r="C98">
-        <v>100935</v>
+        <v>10092</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2712,10 +2750,10 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C99">
-        <v>100936</v>
+        <v>10093</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2723,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C100">
-        <v>100937</v>
+        <v>100931</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2734,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="C101">
-        <v>10094</v>
+        <v>100932</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2745,10 +2783,10 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="C102">
-        <v>10095</v>
+        <v>100933</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2756,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="C103">
-        <v>10096</v>
+        <v>100934</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2767,10 +2805,10 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="C104">
-        <v>10097</v>
+        <v>100935</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2778,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="C105">
-        <v>10098</v>
+        <v>100936</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2789,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="C106">
-        <v>10099</v>
+        <v>100937</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2800,10 +2838,10 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="C107">
-        <v>10100</v>
+        <v>10094</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2811,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C108">
-        <v>10101</v>
+        <v>10095</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2822,10 +2860,10 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C109">
-        <v>10102</v>
+        <v>10096</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2833,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C110">
-        <v>10103</v>
+        <v>10097</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2844,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C111">
-        <v>10104</v>
+        <v>10098</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2855,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C112">
-        <v>10105</v>
+        <v>10099</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2866,10 +2904,10 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="C113">
-        <v>10106</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2877,10 +2915,10 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C114">
-        <v>10107</v>
+        <v>10101</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2888,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C115">
-        <v>10108</v>
+        <v>10102</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2899,10 +2937,10 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C116">
-        <v>10109</v>
+        <v>10103</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2910,10 +2948,10 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C117">
-        <v>10110</v>
+        <v>10104</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2921,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C118">
-        <v>10111</v>
+        <v>10105</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2932,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C119">
-        <v>10112</v>
+        <v>10106</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2943,10 +2981,10 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C120">
-        <v>10113</v>
+        <v>10107</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2954,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C121">
-        <v>10114</v>
+        <v>10108</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2965,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C122">
-        <v>10115</v>
+        <v>10109</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2976,10 +3014,10 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C123">
-        <v>10116</v>
+        <v>10110</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2987,10 +3025,10 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="C124">
-        <v>10117</v>
+        <v>10111</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2998,10 +3036,10 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="C125">
-        <v>10118</v>
+        <v>10112</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3009,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="C126">
-        <v>10119</v>
+        <v>10113</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3020,9 +3058,75 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
+        <v>115</v>
+      </c>
+      <c r="C127">
+        <v>10114</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>116</v>
+      </c>
+      <c r="C128">
+        <v>10115</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>117</v>
+      </c>
+      <c r="C129">
+        <v>10116</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
         <v>43</v>
       </c>
-      <c r="C127">
+      <c r="C130">
+        <v>10117</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>43</v>
+      </c>
+      <c r="C131">
+        <v>10118</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>43</v>
+      </c>
+      <c r="C132">
+        <v>10119</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>43</v>
+      </c>
+      <c r="C133">
         <v>10120</v>
       </c>
     </row>
@@ -3036,9 +3140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -4041,7 +4143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>

--- a/Settings/StringTable.xlsx
+++ b/Settings/StringTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="21555" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="21555" windowHeight="9630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="340">
   <si>
     <t>#define</t>
   </si>
@@ -169,18 +169,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IDS_WWE_TIME_ZONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IDS_WWE_MINUTES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IDS_WWE_TIME_SAVING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IDS_WWE_DISTANCE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IDS_WWE_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IDS_WWE_METRIC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -489,10 +477,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Run</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -509,22 +493,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WWE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>On</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -633,14 +601,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Time Zone:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Daylight Saving Time:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>minutes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1291,7 +1251,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IDS_WWE_METER</t>
+    <t>IDS_WWE_HOUR_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS_WWE_HOUR_24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS_WWE_TIME_SAVING_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS_WWE_TIME_SAVING_2</t>
+  </si>
+  <si>
+    <t>Swim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 Hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 Hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daylight Saving Time 1:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daylight Saving Time 2:</t>
+  </si>
+  <si>
+    <t>hddd.ddddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hddd mm.mmm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hddd mm ss.s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS_WWE_TIME_ZONE_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS_WWE_TIME_ZONE_2</t>
+  </si>
+  <si>
+    <t>Time Zone 1:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time Zone 2:</t>
+  </si>
+  <si>
+    <t>IDS_WWE_METERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS_WWE_PACE_SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS_WWE_PERCENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS_WWE_ANT_BIKE_AUTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS_WWE_ANT_BIKE_MANUAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tradition Chinese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simple Chinese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pace / Speed:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1654,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1707,7 +1783,7 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>10004</v>
       </c>
     </row>
@@ -1716,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C5" s="3">
-        <v>100041</v>
+        <v>303</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10005</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1727,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C6" s="3">
-        <v>100042</v>
+        <v>304</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10006</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1740,8 +1816,8 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>10005</v>
+      <c r="C7" s="2">
+        <v>10007</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1751,8 +1827,8 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>10006</v>
+      <c r="C8" s="2">
+        <v>10008</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1762,8 +1838,8 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>10007</v>
+      <c r="C9" s="2">
+        <v>10009</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1773,8 +1849,8 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>10008</v>
+      <c r="C10" s="2">
+        <v>10010</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1784,8 +1860,8 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>10009</v>
+      <c r="C11" s="2">
+        <v>10011</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1795,8 +1871,8 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
-        <v>10010</v>
+      <c r="C12" s="2">
+        <v>10012</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1806,8 +1882,8 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
-        <v>10011</v>
+      <c r="C13" s="2">
+        <v>10013</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1817,8 +1893,8 @@
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14">
-        <v>10012</v>
+      <c r="C14" s="2">
+        <v>10014</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1828,8 +1904,8 @@
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
-        <v>10013</v>
+      <c r="C15" s="2">
+        <v>10015</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1839,8 +1915,8 @@
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16">
-        <v>10014</v>
+      <c r="C16" s="2">
+        <v>10016</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1850,8 +1926,8 @@
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17">
-        <v>10015</v>
+      <c r="C17" s="2">
+        <v>10017</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1861,8 +1937,8 @@
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18">
-        <v>10016</v>
+      <c r="C18" s="2">
+        <v>10018</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1872,19 +1948,19 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19">
-        <v>10017</v>
+      <c r="C19" s="2">
+        <v>10019</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1">
       <c r="A20" s="3" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" s="3">
-        <v>100171</v>
+        <v>326</v>
+      </c>
+      <c r="C20" s="2">
+        <v>10020</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1894,8 +1970,8 @@
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21">
-        <v>10018</v>
+      <c r="C21" s="2">
+        <v>10021</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1905,8 +1981,8 @@
       <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22">
-        <v>10019</v>
+      <c r="C22" s="2">
+        <v>10022</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1916,8 +1992,8 @@
       <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C23">
-        <v>10020</v>
+      <c r="C23" s="2">
+        <v>10023</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1927,8 +2003,8 @@
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24">
-        <v>10021</v>
+      <c r="C24" s="2">
+        <v>10024</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1938,8 +2014,8 @@
       <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C25">
-        <v>10022</v>
+      <c r="C25" s="2">
+        <v>10025</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1949,8 +2025,8 @@
       <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="C26">
-        <v>10023</v>
+      <c r="C26" s="2">
+        <v>10026</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1960,8 +2036,8 @@
       <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="C27">
-        <v>10024</v>
+      <c r="C27" s="2">
+        <v>10027</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1971,8 +2047,8 @@
       <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="C28">
-        <v>10025</v>
+      <c r="C28" s="2">
+        <v>10028</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1982,8 +2058,8 @@
       <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="C29">
-        <v>10026</v>
+      <c r="C29" s="2">
+        <v>10029</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1993,8 +2069,8 @@
       <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="C30">
-        <v>10027</v>
+      <c r="C30" s="2">
+        <v>10030</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2004,8 +2080,8 @@
       <c r="B31" t="s">
         <v>28</v>
       </c>
-      <c r="C31">
-        <v>10028</v>
+      <c r="C31" s="2">
+        <v>10031</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2015,8 +2091,8 @@
       <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="C32">
-        <v>10029</v>
+      <c r="C32" s="2">
+        <v>10032</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2026,8 +2102,8 @@
       <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="C33">
-        <v>10030</v>
+      <c r="C33" s="2">
+        <v>10033</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2037,8 +2113,8 @@
       <c r="B34" t="s">
         <v>31</v>
       </c>
-      <c r="C34">
-        <v>10031</v>
+      <c r="C34" s="2">
+        <v>10034</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2048,8 +2124,8 @@
       <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="C35">
-        <v>10032</v>
+      <c r="C35" s="2">
+        <v>10035</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2059,8 +2135,8 @@
       <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="C36">
-        <v>10033</v>
+      <c r="C36" s="2">
+        <v>10036</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2070,8 +2146,8 @@
       <c r="B37" t="s">
         <v>34</v>
       </c>
-      <c r="C37">
-        <v>10034</v>
+      <c r="C37" s="2">
+        <v>10037</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2081,8 +2157,8 @@
       <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="C38">
-        <v>10035</v>
+      <c r="C38" s="2">
+        <v>10038</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2092,8 +2168,8 @@
       <c r="B39" t="s">
         <v>36</v>
       </c>
-      <c r="C39">
-        <v>10036</v>
+      <c r="C39" s="2">
+        <v>10039</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2103,52 +2179,52 @@
       <c r="B40" t="s">
         <v>37</v>
       </c>
-      <c r="C40">
-        <v>10037</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41">
-        <v>10038</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42">
-        <v>10039</v>
+      <c r="C40" s="2">
+        <v>10040</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="2" customFormat="1">
+      <c r="A41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10041</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="2" customFormat="1">
+      <c r="A42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10042</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43">
-        <v>10040</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44">
-        <v>10041</v>
+      <c r="A43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C43" s="2">
+        <v>10043</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="2" customFormat="1">
+      <c r="A44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C44" s="2">
+        <v>10044</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2156,65 +2232,65 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45">
-        <v>10042</v>
+        <v>38</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10045</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46">
-        <v>10043</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47">
-        <v>10044</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="2" customFormat="1">
-      <c r="A48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C48" s="3">
-        <v>100441</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="2" customFormat="1">
-      <c r="A49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C49" s="3">
-        <v>100442</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="2" customFormat="1">
-      <c r="A50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C50" s="3">
-        <v>100443</v>
+      <c r="A46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C46" s="2">
+        <v>10046</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="2" customFormat="1">
+      <c r="A47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C47" s="2">
+        <v>10047</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="2">
+        <v>10048</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="2">
+        <v>10049</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10050</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2222,43 +2298,43 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51">
-        <v>10045</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52">
-        <v>10046</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53">
-        <v>10047</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54">
-        <v>10048</v>
+        <v>43</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10051</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="2" customFormat="1">
+      <c r="A52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C52" s="2">
+        <v>10052</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="2" customFormat="1">
+      <c r="A53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C53" s="2">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="2" customFormat="1">
+      <c r="A54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C54" s="2">
+        <v>10054</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2266,10 +2342,10 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55">
-        <v>10049</v>
+        <v>44</v>
+      </c>
+      <c r="C55" s="2">
+        <v>10055</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2277,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56">
-        <v>10050</v>
+        <v>45</v>
+      </c>
+      <c r="C56" s="2">
+        <v>10056</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2288,10 +2364,10 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57">
-        <v>10051</v>
+        <v>46</v>
+      </c>
+      <c r="C57" s="2">
+        <v>10057</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2299,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58">
-        <v>10052</v>
+        <v>47</v>
+      </c>
+      <c r="C58" s="2">
+        <v>10058</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2310,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59">
-        <v>10053</v>
+        <v>48</v>
+      </c>
+      <c r="C59" s="2">
+        <v>10059</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2321,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60">
-        <v>10054</v>
+        <v>49</v>
+      </c>
+      <c r="C60" s="2">
+        <v>10060</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2332,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61">
-        <v>10055</v>
+        <v>50</v>
+      </c>
+      <c r="C61" s="2">
+        <v>10061</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2343,10 +2419,10 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62">
-        <v>10056</v>
+        <v>51</v>
+      </c>
+      <c r="C62" s="2">
+        <v>10062</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2354,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63">
-        <v>10057</v>
+        <v>52</v>
+      </c>
+      <c r="C63" s="2">
+        <v>10063</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2365,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64">
-        <v>10058</v>
+        <v>53</v>
+      </c>
+      <c r="C64" s="2">
+        <v>10064</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2376,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65">
-        <v>10059</v>
+        <v>54</v>
+      </c>
+      <c r="C65" s="2">
+        <v>10065</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2387,21 +2463,21 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66">
-        <v>10060</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" t="s">
-        <v>63</v>
-      </c>
-      <c r="C67">
-        <v>10061</v>
+        <v>55</v>
+      </c>
+      <c r="C66" s="2">
+        <v>10066</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="2" customFormat="1">
+      <c r="A67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C67" s="2">
+        <v>10067</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2409,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68">
-        <v>10062</v>
+        <v>56</v>
+      </c>
+      <c r="C68" s="2">
+        <v>10068</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2420,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69">
-        <v>10063</v>
+        <v>57</v>
+      </c>
+      <c r="C69" s="2">
+        <v>10069</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2431,10 +2507,10 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
-      </c>
-      <c r="C70">
-        <v>10064</v>
+        <v>58</v>
+      </c>
+      <c r="C70" s="2">
+        <v>10070</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2442,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71">
-        <v>10065</v>
+        <v>59</v>
+      </c>
+      <c r="C71" s="2">
+        <v>10071</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2453,21 +2529,21 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72">
-        <v>10066</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73">
-        <v>10067</v>
+        <v>60</v>
+      </c>
+      <c r="C72" s="2">
+        <v>10072</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="2" customFormat="1">
+      <c r="A73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C73" s="2">
+        <v>10073</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2475,10 +2551,10 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74">
-        <v>10068</v>
+        <v>61</v>
+      </c>
+      <c r="C74" s="2">
+        <v>10074</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2486,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75">
-        <v>10069</v>
+        <v>62</v>
+      </c>
+      <c r="C75" s="2">
+        <v>10075</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2497,10 +2573,10 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76">
-        <v>10070</v>
+        <v>63</v>
+      </c>
+      <c r="C76" s="2">
+        <v>10076</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2508,10 +2584,10 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77">
-        <v>10071</v>
+        <v>64</v>
+      </c>
+      <c r="C77" s="2">
+        <v>10077</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2519,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
-      </c>
-      <c r="C78">
-        <v>10072</v>
+        <v>65</v>
+      </c>
+      <c r="C78" s="2">
+        <v>10078</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2530,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79">
-        <v>10073</v>
+        <v>66</v>
+      </c>
+      <c r="C79" s="2">
+        <v>10079</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2541,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
-      </c>
-      <c r="C80">
-        <v>10074</v>
+        <v>67</v>
+      </c>
+      <c r="C80" s="2">
+        <v>10080</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2552,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81">
-        <v>10075</v>
+        <v>68</v>
+      </c>
+      <c r="C81" s="2">
+        <v>10081</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2563,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
-      </c>
-      <c r="C82">
-        <v>10076</v>
+        <v>69</v>
+      </c>
+      <c r="C82" s="2">
+        <v>10082</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2574,32 +2650,32 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83">
-        <v>10077</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" t="s">
-        <v>80</v>
-      </c>
-      <c r="C84">
-        <v>10078</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C85">
-        <v>10079</v>
+        <v>70</v>
+      </c>
+      <c r="C83" s="2">
+        <v>10083</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="2" customFormat="1">
+      <c r="A84" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C84" s="2">
+        <v>10084</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="2" customFormat="1">
+      <c r="A85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C85" s="2">
+        <v>10085</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2607,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86">
-        <v>10080</v>
+        <v>71</v>
+      </c>
+      <c r="C86" s="2">
+        <v>10086</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2618,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
-      </c>
-      <c r="C87">
-        <v>10081</v>
+        <v>72</v>
+      </c>
+      <c r="C87" s="2">
+        <v>10087</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2629,10 +2705,10 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88">
-        <v>10082</v>
+        <v>73</v>
+      </c>
+      <c r="C88" s="2">
+        <v>10088</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2640,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
-      </c>
-      <c r="C89">
-        <v>10083</v>
+        <v>74</v>
+      </c>
+      <c r="C89" s="2">
+        <v>10089</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2651,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
-      </c>
-      <c r="C90">
-        <v>10084</v>
+        <v>75</v>
+      </c>
+      <c r="C90" s="2">
+        <v>10090</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2662,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
-      </c>
-      <c r="C91">
-        <v>10085</v>
+        <v>76</v>
+      </c>
+      <c r="C91" s="2">
+        <v>10091</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2673,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
-      </c>
-      <c r="C92">
-        <v>10086</v>
+        <v>77</v>
+      </c>
+      <c r="C92" s="2">
+        <v>10092</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2684,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>89</v>
-      </c>
-      <c r="C93">
-        <v>10087</v>
+        <v>78</v>
+      </c>
+      <c r="C93" s="2">
+        <v>10093</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2695,10 +2771,10 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
-      </c>
-      <c r="C94">
-        <v>10088</v>
+        <v>79</v>
+      </c>
+      <c r="C94" s="2">
+        <v>10094</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2706,10 +2782,10 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>91</v>
-      </c>
-      <c r="C95">
-        <v>10089</v>
+        <v>80</v>
+      </c>
+      <c r="C95" s="2">
+        <v>10095</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2717,10 +2793,10 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96">
-        <v>10090</v>
+        <v>81</v>
+      </c>
+      <c r="C96" s="2">
+        <v>10096</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2728,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>93</v>
-      </c>
-      <c r="C97">
-        <v>10091</v>
+        <v>82</v>
+      </c>
+      <c r="C97" s="2">
+        <v>10097</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2739,10 +2815,10 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>94</v>
-      </c>
-      <c r="C98">
-        <v>10092</v>
+        <v>83</v>
+      </c>
+      <c r="C98" s="2">
+        <v>10098</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2750,10 +2826,10 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>210</v>
-      </c>
-      <c r="C99">
-        <v>10093</v>
+        <v>84</v>
+      </c>
+      <c r="C99" s="2">
+        <v>10099</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2761,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>211</v>
-      </c>
-      <c r="C100">
-        <v>100931</v>
+        <v>85</v>
+      </c>
+      <c r="C100" s="2">
+        <v>10100</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2772,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>212</v>
-      </c>
-      <c r="C101">
-        <v>100932</v>
+        <v>86</v>
+      </c>
+      <c r="C101" s="2">
+        <v>10101</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2783,10 +2859,10 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>213</v>
-      </c>
-      <c r="C102">
-        <v>100933</v>
+        <v>87</v>
+      </c>
+      <c r="C102" s="2">
+        <v>10102</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2794,10 +2870,10 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C103">
-        <v>100934</v>
+        <v>88</v>
+      </c>
+      <c r="C103" s="2">
+        <v>10103</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2805,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>215</v>
-      </c>
-      <c r="C104">
-        <v>100935</v>
+        <v>89</v>
+      </c>
+      <c r="C104" s="2">
+        <v>10104</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2816,10 +2892,10 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
-      </c>
-      <c r="C105">
-        <v>100936</v>
+        <v>90</v>
+      </c>
+      <c r="C105" s="2">
+        <v>10105</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2827,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>217</v>
-      </c>
-      <c r="C106">
-        <v>100937</v>
+        <v>91</v>
+      </c>
+      <c r="C106" s="2">
+        <v>10106</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2838,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>96</v>
-      </c>
-      <c r="C107">
-        <v>10094</v>
+        <v>200</v>
+      </c>
+      <c r="C107" s="2">
+        <v>10107</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2849,10 +2925,10 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>97</v>
-      </c>
-      <c r="C108">
-        <v>10095</v>
+        <v>201</v>
+      </c>
+      <c r="C108" s="2">
+        <v>10108</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2860,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>99</v>
-      </c>
-      <c r="C109">
-        <v>10096</v>
+        <v>202</v>
+      </c>
+      <c r="C109" s="2">
+        <v>10109</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2871,10 +2947,10 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>98</v>
-      </c>
-      <c r="C110">
-        <v>10097</v>
+        <v>203</v>
+      </c>
+      <c r="C110" s="2">
+        <v>10110</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2882,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>100</v>
-      </c>
-      <c r="C111">
-        <v>10098</v>
+        <v>204</v>
+      </c>
+      <c r="C111" s="2">
+        <v>10111</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2893,10 +2969,10 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>101</v>
-      </c>
-      <c r="C112">
-        <v>10099</v>
+        <v>205</v>
+      </c>
+      <c r="C112" s="2">
+        <v>10112</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2904,10 +2980,10 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>41</v>
-      </c>
-      <c r="C113">
-        <v>10100</v>
+        <v>206</v>
+      </c>
+      <c r="C113" s="2">
+        <v>10113</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2915,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>102</v>
-      </c>
-      <c r="C114">
-        <v>10101</v>
+        <v>207</v>
+      </c>
+      <c r="C114" s="2">
+        <v>10114</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2926,10 +3002,10 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>103</v>
-      </c>
-      <c r="C115">
-        <v>10102</v>
+        <v>93</v>
+      </c>
+      <c r="C115" s="2">
+        <v>10115</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2937,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>104</v>
-      </c>
-      <c r="C116">
-        <v>10103</v>
+        <v>94</v>
+      </c>
+      <c r="C116" s="2">
+        <v>10116</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2948,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>105</v>
-      </c>
-      <c r="C117">
-        <v>10104</v>
+        <v>96</v>
+      </c>
+      <c r="C117" s="2">
+        <v>10117</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2959,10 +3035,10 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>106</v>
-      </c>
-      <c r="C118">
-        <v>10105</v>
+        <v>95</v>
+      </c>
+      <c r="C118" s="2">
+        <v>10118</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2970,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>107</v>
-      </c>
-      <c r="C119">
-        <v>10106</v>
+        <v>97</v>
+      </c>
+      <c r="C119" s="2">
+        <v>10119</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2981,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>108</v>
-      </c>
-      <c r="C120">
-        <v>10107</v>
+        <v>98</v>
+      </c>
+      <c r="C120" s="2">
+        <v>10120</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2992,10 +3068,10 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>109</v>
-      </c>
-      <c r="C121">
-        <v>10108</v>
+        <v>39</v>
+      </c>
+      <c r="C121" s="2">
+        <v>10121</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3003,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>110</v>
-      </c>
-      <c r="C122">
-        <v>10109</v>
+        <v>99</v>
+      </c>
+      <c r="C122" s="2">
+        <v>10122</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3014,10 +3090,10 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>111</v>
-      </c>
-      <c r="C123">
-        <v>10110</v>
+        <v>100</v>
+      </c>
+      <c r="C123" s="2">
+        <v>10123</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3025,10 +3101,10 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>112</v>
-      </c>
-      <c r="C124">
-        <v>10111</v>
+        <v>101</v>
+      </c>
+      <c r="C124" s="2">
+        <v>10124</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3036,10 +3112,10 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>113</v>
-      </c>
-      <c r="C125">
-        <v>10112</v>
+        <v>102</v>
+      </c>
+      <c r="C125" s="2">
+        <v>10125</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3047,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>114</v>
-      </c>
-      <c r="C126">
-        <v>10113</v>
+        <v>103</v>
+      </c>
+      <c r="C126" s="2">
+        <v>10126</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3058,10 +3134,10 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>115</v>
-      </c>
-      <c r="C127">
-        <v>10114</v>
+        <v>104</v>
+      </c>
+      <c r="C127" s="2">
+        <v>10127</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3069,10 +3145,10 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>116</v>
-      </c>
-      <c r="C128">
-        <v>10115</v>
+        <v>105</v>
+      </c>
+      <c r="C128" s="2">
+        <v>10128</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3080,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>117</v>
-      </c>
-      <c r="C129">
-        <v>10116</v>
+        <v>106</v>
+      </c>
+      <c r="C129" s="2">
+        <v>10129</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3091,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
-      </c>
-      <c r="C130">
-        <v>10117</v>
+        <v>107</v>
+      </c>
+      <c r="C130" s="2">
+        <v>10130</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3102,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
-      </c>
-      <c r="C131">
-        <v>10118</v>
+        <v>108</v>
+      </c>
+      <c r="C131" s="2">
+        <v>10131</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3113,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
-      </c>
-      <c r="C132">
-        <v>10119</v>
+        <v>109</v>
+      </c>
+      <c r="C132" s="2">
+        <v>10132</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3124,11 +3200,67 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
-      </c>
-      <c r="C133">
-        <v>10120</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C133" s="2">
+        <v>10133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>111</v>
+      </c>
+      <c r="C134" s="2">
+        <v>10134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>112</v>
+      </c>
+      <c r="C135" s="2">
+        <v>10135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>113</v>
+      </c>
+      <c r="C136" s="2">
+        <v>10136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>114</v>
+      </c>
+      <c r="C137" s="2">
+        <v>10137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="C140" s="2"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="C141" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3138,9 +3270,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B123"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -3153,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3161,7 +3295,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3169,7 +3303,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3177,959 +3311,1071 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1">
+      <c r="A5" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>127</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1">
+      <c r="A20" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>137</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>42</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="2" customFormat="1">
+      <c r="A41" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>44</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="2" customFormat="1">
+      <c r="A42" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>159</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>45</v>
+      <c r="A43" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>46</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="2" customFormat="1">
+      <c r="A44" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>161</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>48</v>
+      <c r="A46" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>49</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="2" customFormat="1">
+      <c r="A47" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>164</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>54</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="2" customFormat="1">
+      <c r="A52" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>55</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="2" customFormat="1">
+      <c r="A53" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>56</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="2" customFormat="1">
+      <c r="A54" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>171</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>69</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="2" customFormat="1">
+      <c r="A67" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>75</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="2" customFormat="1">
+      <c r="A73" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>190</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>86</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="2" customFormat="1">
+      <c r="A84" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>87</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" s="2" customFormat="1">
+      <c r="A85" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>202</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>216</v>
+        <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>248</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>101</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>102</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>103</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>104</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>105</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>106</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>107</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>108</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>109</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>110</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>111</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>112</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>113</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>114</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4155,10 +4401,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C1">
         <v>1000</v>
@@ -4166,10 +4412,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C2">
         <v>1001</v>
@@ -4177,10 +4423,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C3">
         <v>1002</v>
@@ -4188,10 +4434,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C4">
         <v>1003</v>
@@ -4199,10 +4445,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C5">
         <v>1004</v>
@@ -4210,10 +4456,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C6">
         <v>1005</v>
@@ -4221,10 +4467,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C7">
         <v>1006</v>
@@ -4232,10 +4478,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C8">
         <v>1007</v>
@@ -4243,10 +4489,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" t="s">
         <v>249</v>
-      </c>
-      <c r="B9" t="s">
-        <v>259</v>
       </c>
       <c r="C9">
         <v>1008</v>
@@ -4254,10 +4500,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C10">
         <v>1009</v>
@@ -4265,10 +4511,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C11">
         <v>1010</v>
@@ -4276,10 +4522,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C12">
         <v>1011</v>
@@ -4287,10 +4533,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B13" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C13">
         <v>1012</v>
@@ -4298,10 +4544,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B14" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C14">
         <v>1013</v>
@@ -4309,10 +4555,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B15" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C15">
         <v>1014</v>
@@ -4320,10 +4566,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C16">
         <v>1015</v>
@@ -4331,10 +4577,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B17" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C17">
         <v>1016</v>
@@ -4342,10 +4588,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C18">
         <v>1017</v>
@@ -4353,10 +4599,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B19" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C19">
         <v>1018</v>
@@ -4364,10 +4610,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B20" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C20">
         <v>1019</v>
@@ -4375,10 +4621,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C21">
         <v>1020</v>
@@ -4386,10 +4632,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C22">
         <v>1021</v>
@@ -4397,10 +4643,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C23">
         <v>1022</v>
@@ -4408,10 +4654,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C24">
         <v>1023</v>
@@ -4419,10 +4665,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C25">
         <v>1024</v>
@@ -4430,10 +4676,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C26">
         <v>1025</v>
@@ -4441,10 +4687,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C27">
         <v>1026</v>
@@ -4452,10 +4698,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C28">
         <v>1027</v>
@@ -4463,10 +4709,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C29">
         <v>1028</v>
@@ -4474,10 +4720,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C30">
         <v>1029</v>
@@ -4485,10 +4731,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B31" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C31">
         <v>1030</v>
@@ -4496,10 +4742,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C32">
         <v>1031</v>
@@ -4507,10 +4753,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B33" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C33">
         <v>1032</v>
@@ -4518,10 +4764,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B34" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C34">
         <v>1033</v>
@@ -4529,10 +4775,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C35">
         <v>1034</v>
@@ -4540,10 +4786,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B36" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C36">
         <v>1035</v>
@@ -4551,10 +4797,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B37" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C37">
         <v>1036</v>
@@ -4562,10 +4808,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B38" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C38">
         <v>1037</v>
@@ -4573,10 +4819,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B39" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C39">
         <v>1038</v>
@@ -4584,10 +4830,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B40" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C40">
         <v>1039</v>
@@ -4595,10 +4841,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B41" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C41">
         <v>1040</v>
@@ -4606,10 +4852,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B42" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C42">
         <v>1041</v>
@@ -4617,10 +4863,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B43" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C43">
         <v>1042</v>
@@ -4628,10 +4874,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B44" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C44">
         <v>1043</v>
@@ -4639,10 +4885,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B45" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C45">
         <v>1044</v>
@@ -4650,10 +4896,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B46" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C46">
         <v>1045</v>
@@ -4661,10 +4907,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B47" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C47">
         <v>1046</v>
@@ -4672,10 +4918,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B48" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C48">
         <v>1047</v>
@@ -4683,10 +4929,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B49" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C49">
         <v>1048</v>
@@ -4694,10 +4940,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B50" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C50">
         <v>1049</v>
@@ -4705,10 +4951,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B51" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C51">
         <v>1050</v>
@@ -4716,10 +4962,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B52" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C52">
         <v>1051</v>
@@ -4727,10 +4973,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B53" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C53">
         <v>1052</v>
@@ -4738,10 +4984,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B54" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C54">
         <v>1053</v>
@@ -4749,10 +4995,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B55" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C55">
         <v>1054</v>
@@ -4760,10 +5006,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C56">
         <v>1055</v>
@@ -4771,10 +5017,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C57">
         <v>1056</v>
@@ -4782,10 +5028,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B58" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C58">
         <v>1057</v>
@@ -4793,10 +5039,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B59" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C59">
         <v>1058</v>
@@ -4804,10 +5050,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B60" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C60">
         <v>1059</v>
@@ -4815,10 +5061,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B61" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C61">
         <v>1060</v>
@@ -4826,10 +5072,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B62" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C62">
         <v>1061</v>
@@ -4837,10 +5083,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B63" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C63">
         <v>1062</v>
@@ -4848,10 +5094,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B64" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C64">
         <v>1063</v>
@@ -4859,10 +5105,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B65" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C65">
         <v>1064</v>
@@ -4870,10 +5116,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B66" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C66">
         <v>1065</v>
@@ -4881,10 +5127,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B67" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C67">
         <v>1066</v>
@@ -4892,10 +5138,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B68" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C68">
         <v>1067</v>
@@ -4903,10 +5149,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B69" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C69">
         <v>1068</v>
@@ -4914,10 +5160,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B70" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/Settings/StringTable.xlsx
+++ b/Settings/StringTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="342">
   <si>
     <t>#define</t>
   </si>
@@ -1368,6 +1368,14 @@
   </si>
   <si>
     <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS_WWE_APPLY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1732,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84:B85"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B135" sqref="A1:C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3251,7 +3259,15 @@
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="C138" s="2"/>
+      <c r="A138" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C138" s="2">
+        <v>10138</v>
+      </c>
     </row>
     <row r="139" spans="1:3">
       <c r="C139" s="2"/>
@@ -3270,10 +3286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4376,6 +4392,14 @@
       </c>
       <c r="B137" s="1" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/Settings/StringTable.xlsx
+++ b/Settings/StringTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="346">
   <si>
     <t>#define</t>
   </si>
@@ -1376,6 +1376,22 @@
   </si>
   <si>
     <t>Apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS_WWE_WEIGHT_HEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight &amp; Height:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS_WWE_ALARM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1738,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B135" sqref="A1:C138"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2884,12 +2900,12 @@
         <v>10103</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" t="s">
-        <v>89</v>
+    <row r="104" spans="1:3" s="2" customFormat="1">
+      <c r="A104" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="C104" s="2">
         <v>10104</v>
@@ -2900,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C105" s="2">
         <v>10105</v>
@@ -2911,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C106" s="2">
         <v>10106</v>
@@ -2922,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="C107" s="2">
         <v>10107</v>
@@ -2933,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C108" s="2">
         <v>10108</v>
@@ -2944,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C109" s="2">
         <v>10109</v>
@@ -2955,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C110" s="2">
         <v>10110</v>
@@ -2966,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C111" s="2">
         <v>10111</v>
@@ -2977,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C112" s="2">
         <v>10112</v>
@@ -2988,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C113" s="2">
         <v>10113</v>
@@ -2999,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C114" s="2">
         <v>10114</v>
@@ -3010,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="C115" s="2">
         <v>10115</v>
@@ -3021,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C116" s="2">
         <v>10116</v>
@@ -3032,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C117" s="2">
         <v>10117</v>
@@ -3043,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C118" s="2">
         <v>10118</v>
@@ -3054,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C119" s="2">
         <v>10119</v>
@@ -3065,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C120" s="2">
         <v>10120</v>
@@ -3076,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C121" s="2">
         <v>10121</v>
@@ -3087,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="C122" s="2">
         <v>10122</v>
@@ -3098,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C123" s="2">
         <v>10123</v>
@@ -3109,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C124" s="2">
         <v>10124</v>
@@ -3120,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C125" s="2">
         <v>10125</v>
@@ -3131,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C126" s="2">
         <v>10126</v>
@@ -3142,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C127" s="2">
         <v>10127</v>
@@ -3153,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C128" s="2">
         <v>10128</v>
@@ -3164,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C129" s="2">
         <v>10129</v>
@@ -3175,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C130" s="2">
         <v>10130</v>
@@ -3186,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C131" s="2">
         <v>10131</v>
@@ -3197,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C132" s="2">
         <v>10132</v>
@@ -3208,29 +3224,29 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C133" s="2">
         <v>10133</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>0</v>
-      </c>
-      <c r="B134" t="s">
-        <v>111</v>
+    <row r="134" spans="1:3" s="2" customFormat="1">
+      <c r="A134" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="C134" s="2">
         <v>10134</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" t="s">
+      <c r="A135" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C135" s="2">
         <v>10135</v>
@@ -3241,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C136" s="2">
         <v>10136</v>
@@ -3252,31 +3268,53 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C137" s="2">
         <v>10137</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>340</v>
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>113</v>
       </c>
       <c r="C138" s="2">
         <v>10138</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="C139" s="2"/>
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>114</v>
+      </c>
+      <c r="C139" s="2">
+        <v>10139</v>
+      </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="C140" s="2"/>
+      <c r="A140" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C140" s="2">
+        <v>10140</v>
+      </c>
     </row>
     <row r="141" spans="1:3">
       <c r="C141" s="2"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="C143" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3286,10 +3324,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="F135" sqref="F135"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4122,283 +4160,299 @@
         <v>195</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>89</v>
+    <row r="104" spans="1:2" s="2" customFormat="1">
+      <c r="A104" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>111</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" s="2" customFormat="1">
+      <c r="A134" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>235</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
+        <v>112</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>113</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
         <v>114</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="2" t="s">
+    <row r="140" spans="1:2">
+      <c r="A140" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>341</v>
       </c>
     </row>
